--- a/Team-Data/2008-09/3-30-2008-09.xlsx
+++ b/Team-Data/2008-09/3-30-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -780,13 +847,13 @@
         <v>24</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
@@ -795,16 +862,16 @@
         <v>21</v>
       </c>
       <c r="AU2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW2" t="n">
         <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY2" t="n">
         <v>7</v>
@@ -813,10 +880,10 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -848,70 +915,70 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.743</v>
+        <v>0.747</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J3" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
         <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P3" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U3" t="n">
         <v>22.7</v>
       </c>
       <c r="V3" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W3" t="n">
         <v>7.6</v>
       </c>
       <c r="X3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y3" t="n">
         <v>4.7</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
         <v>23.2</v>
@@ -920,13 +987,13 @@
         <v>22.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="AC3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -950,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
@@ -959,13 +1026,13 @@
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -980,13 +1047,13 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
         <v>14</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1120,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1150,10 +1217,10 @@
         <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT4" t="n">
         <v>27</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
         <v>39</v>
       </c>
       <c r="G5" t="n">
-        <v>0.473</v>
+        <v>0.48</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
@@ -1230,40 +1297,40 @@
         <v>38.1</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O5" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="P5" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
         <v>42.4</v>
       </c>
       <c r="U5" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V5" t="n">
         <v>14.8</v>
@@ -1275,25 +1342,25 @@
         <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
         <v>21.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
         <v>101.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1323,10 +1390,10 @@
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
@@ -1344,22 +1411,22 @@
         <v>15</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
         <v>9</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -1394,46 +1461,46 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" t="n">
         <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.833</v>
+        <v>0.822</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.469</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.391</v>
+        <v>0.389</v>
       </c>
       <c r="O6" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R6" t="n">
         <v>10.7</v>
@@ -1442,13 +1509,13 @@
         <v>31.3</v>
       </c>
       <c r="T6" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V6" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1457,22 +1524,22 @@
         <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
         <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1487,7 +1554,7 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1505,16 +1572,16 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1523,25 +1590,25 @@
         <v>10</v>
       </c>
       <c r="AU6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
         <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
         <v>8</v>
@@ -1699,7 +1766,7 @@
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>5</v>
@@ -1711,10 +1778,10 @@
         <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1899,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="AY8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
@@ -2030,13 +2097,13 @@
         <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
         <v>18</v>
@@ -2066,7 +2133,7 @@
         <v>18</v>
       </c>
       <c r="AT9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU9" t="n">
         <v>16</v>
@@ -2078,10 +2145,10 @@
         <v>29</v>
       </c>
       <c r="AX9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" t="n">
         <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" t="n">
-        <v>0.338</v>
+        <v>0.342</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
@@ -2140,7 +2207,7 @@
         <v>39.5</v>
       </c>
       <c r="J10" t="n">
-        <v>86.09999999999999</v>
+        <v>86</v>
       </c>
       <c r="K10" t="n">
         <v>0.459</v>
@@ -2149,31 +2216,31 @@
         <v>6.7</v>
       </c>
       <c r="M10" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="N10" t="n">
         <v>0.373</v>
       </c>
       <c r="O10" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="P10" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.789</v>
+        <v>0.787</v>
       </c>
       <c r="R10" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S10" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T10" t="n">
         <v>41.9</v>
       </c>
       <c r="U10" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V10" t="n">
         <v>14.9</v>
@@ -2188,7 +2255,7 @@
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA10" t="n">
         <v>23.4</v>
@@ -2200,7 +2267,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2221,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
         <v>16</v>
@@ -2239,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
         <v>9</v>
@@ -2251,7 +2318,7 @@
         <v>11</v>
       </c>
       <c r="AU10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2394,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>26</v>
@@ -2415,7 +2482,7 @@
         <v>11</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2433,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV11" t="n">
         <v>15</v>
@@ -2451,10 +2518,10 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC11" t="n">
         <v>6</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -2564,19 +2631,19 @@
         <v>-1.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2588,13 +2655,13 @@
         <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>22</v>
@@ -2627,13 +2694,13 @@
         <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF13" t="n">
         <v>28</v>
@@ -2797,10 +2864,10 @@
         <v>26</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" t="n">
         <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>0.792</v>
+        <v>0.795</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.476</v>
@@ -2877,31 +2944,31 @@
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="O14" t="n">
         <v>19.6</v>
       </c>
       <c r="P14" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q14" t="n">
         <v>0.768</v>
       </c>
       <c r="R14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
         <v>44.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V14" t="n">
         <v>13.6</v>
@@ -2919,16 +2986,16 @@
         <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2949,7 +3016,7 @@
         <v>4</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
@@ -2961,19 +3028,19 @@
         <v>17</v>
       </c>
       <c r="AO14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP14" t="n">
         <v>11</v>
       </c>
-      <c r="AP14" t="n">
-        <v>9</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2991,10 +3058,10 @@
         <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -3032,22 +3099,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
         <v>54</v>
       </c>
       <c r="G15" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J15" t="n">
         <v>77.3</v>
@@ -3062,13 +3129,13 @@
         <v>13.2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O15" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P15" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="Q15" t="n">
         <v>0.756</v>
@@ -3077,16 +3144,16 @@
         <v>10.5</v>
       </c>
       <c r="S15" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="T15" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="U15" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W15" t="n">
         <v>7.4</v>
@@ -3098,19 +3165,19 @@
         <v>5.5</v>
       </c>
       <c r="Z15" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="AA15" t="n">
         <v>21.7</v>
       </c>
-      <c r="AA15" t="n">
-        <v>21.8</v>
-      </c>
       <c r="AB15" t="n">
-        <v>93.3</v>
+        <v>93</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3140,16 +3207,16 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP15" t="n">
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
@@ -3158,7 +3225,7 @@
         <v>29</v>
       </c>
       <c r="AT15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3167,7 +3234,7 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" t="n">
         <v>39</v>
       </c>
       <c r="F16" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" t="n">
-        <v>0.527</v>
+        <v>0.534</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
@@ -3232,7 +3299,7 @@
         <v>37</v>
       </c>
       <c r="J16" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K16" t="n">
         <v>0.455</v>
@@ -3241,10 +3308,10 @@
         <v>6.8</v>
       </c>
       <c r="M16" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O16" t="n">
         <v>17.4</v>
@@ -3253,13 +3320,13 @@
         <v>22.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="R16" t="n">
         <v>10.2</v>
       </c>
       <c r="S16" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="T16" t="n">
         <v>39.3</v>
@@ -3277,7 +3344,7 @@
         <v>5.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z16" t="n">
         <v>20.7</v>
@@ -3286,19 +3353,19 @@
         <v>19.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
         <v>14</v>
@@ -3355,7 +3422,7 @@
         <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ16" t="n">
         <v>16</v>
@@ -3364,7 +3431,7 @@
         <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -3399,13 +3466,13 @@
         <v>74</v>
       </c>
       <c r="E17" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" t="n">
-        <v>0.432</v>
+        <v>0.419</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3420,40 +3487,40 @@
         <v>0.443</v>
       </c>
       <c r="L17" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O17" t="n">
         <v>20</v>
       </c>
       <c r="P17" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.781</v>
+        <v>0.782</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
         <v>21.4</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X17" t="n">
         <v>3.8</v>
@@ -3462,19 +3529,19 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="AA17" t="n">
         <v>22.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1</v>
+        <v>-1.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3489,7 +3556,7 @@
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
@@ -3504,13 +3571,13 @@
         <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
         <v>7</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3519,10 +3586,10 @@
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
         <v>10</v>
@@ -3531,13 +3598,13 @@
         <v>13</v>
       </c>
       <c r="AW17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,10 +3735,10 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI18" t="n">
         <v>18</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>19</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
@@ -3689,13 +3756,13 @@
         <v>22</v>
       </c>
       <c r="AO18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
@@ -3710,7 +3777,7 @@
         <v>20</v>
       </c>
       <c r="AV18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" t="n">
         <v>30</v>
       </c>
       <c r="F19" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" t="n">
-        <v>0.405</v>
+        <v>0.411</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J19" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K19" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L19" t="n">
         <v>7.9</v>
@@ -3790,22 +3857,22 @@
         <v>21</v>
       </c>
       <c r="N19" t="n">
-        <v>0.376</v>
+        <v>0.378</v>
       </c>
       <c r="O19" t="n">
         <v>18.9</v>
       </c>
       <c r="P19" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.777</v>
+        <v>0.779</v>
       </c>
       <c r="R19" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S19" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T19" t="n">
         <v>39.8</v>
@@ -3832,46 +3899,46 @@
         <v>20.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.8</v>
+        <v>-2.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
         <v>21</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM19" t="n">
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP19" t="n">
         <v>18</v>
@@ -3889,7 +3956,7 @@
         <v>25</v>
       </c>
       <c r="AU19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV19" t="n">
         <v>9</v>
@@ -3901,7 +3968,7 @@
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ19" t="n">
         <v>25</v>
@@ -3910,10 +3977,10 @@
         <v>18</v>
       </c>
       <c r="BB19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BC19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -4023,13 +4090,13 @@
         <v>25</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG20" t="n">
         <v>9</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10</v>
       </c>
       <c r="AH20" t="n">
         <v>28</v>
@@ -4062,7 +4129,7 @@
         <v>3</v>
       </c>
       <c r="AR20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS20" t="n">
         <v>16</v>
@@ -4074,10 +4141,10 @@
         <v>28</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX20" t="n">
         <v>23</v>
@@ -4089,7 +4156,7 @@
         <v>9</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" t="n">
         <v>29</v>
       </c>
       <c r="F21" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" t="n">
-        <v>0.392</v>
+        <v>0.397</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,37 +4209,37 @@
         <v>38.5</v>
       </c>
       <c r="J21" t="n">
-        <v>86.5</v>
+        <v>86.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L21" t="n">
         <v>10.2</v>
       </c>
       <c r="M21" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="N21" t="n">
         <v>0.361</v>
       </c>
       <c r="O21" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P21" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.787</v>
+        <v>0.788</v>
       </c>
       <c r="R21" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S21" t="n">
         <v>31.1</v>
       </c>
       <c r="T21" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U21" t="n">
         <v>21.2</v>
@@ -4181,28 +4248,28 @@
         <v>14.5</v>
       </c>
       <c r="W21" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X21" t="n">
         <v>2.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z21" t="n">
         <v>20.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB21" t="n">
         <v>105.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4214,10 +4281,10 @@
         <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
@@ -4232,16 +4299,16 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO21" t="n">
         <v>21</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AR21" t="n">
         <v>15</v>
@@ -4259,7 +4326,7 @@
         <v>18</v>
       </c>
       <c r="AW21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4277,7 +4344,7 @@
         <v>4</v>
       </c>
       <c r="BC21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4396,7 +4463,7 @@
         <v>26</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>17</v>
@@ -4441,7 +4508,7 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4450,7 +4517,7 @@
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" t="n">
         <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>0.753</v>
+        <v>0.75</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
@@ -4506,19 +4573,19 @@
         <v>36</v>
       </c>
       <c r="J23" t="n">
-        <v>78.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L23" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="M23" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.388</v>
+        <v>0.387</v>
       </c>
       <c r="O23" t="n">
         <v>19.9</v>
@@ -4530,10 +4597,10 @@
         <v>0.721</v>
       </c>
       <c r="R23" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="T23" t="n">
         <v>43.3</v>
@@ -4542,13 +4609,13 @@
         <v>19.5</v>
       </c>
       <c r="V23" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y23" t="n">
         <v>3.7</v>
@@ -4557,7 +4624,7 @@
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB23" t="n">
         <v>102.2</v>
@@ -4566,10 +4633,10 @@
         <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>3</v>
@@ -4578,7 +4645,7 @@
         <v>3</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>25</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
@@ -4620,13 +4687,13 @@
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4821,7 @@
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
         <v>15</v>
@@ -4763,13 +4830,13 @@
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
         <v>17</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP24" t="n">
         <v>6</v>
@@ -4793,16 +4860,16 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT24" t="n">
         <v>13</v>
       </c>
       <c r="AU24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW24" t="n">
         <v>4</v>
@@ -4811,10 +4878,10 @@
         <v>11</v>
       </c>
       <c r="AY24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4987,7 +5054,7 @@
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26" t="n">
         <v>46</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.639</v>
+        <v>0.63</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J26" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.461</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
@@ -5064,28 +5131,28 @@
         <v>19.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T26" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U26" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V26" t="n">
         <v>12.8</v>
@@ -5097,28 +5164,28 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
         <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
         <v>8</v>
@@ -5139,16 +5206,16 @@
         <v>9</v>
       </c>
       <c r="AM26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN26" t="n">
         <v>7</v>
       </c>
       <c r="AO26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP26" t="n">
         <v>17</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>16</v>
       </c>
       <c r="AQ26" t="n">
         <v>15</v>
@@ -5166,7 +5233,7 @@
         <v>22</v>
       </c>
       <c r="AV26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -5321,7 +5388,7 @@
         <v>11</v>
       </c>
       <c r="AM27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN27" t="n">
         <v>18</v>
@@ -5342,13 +5409,13 @@
         <v>27</v>
       </c>
       <c r="AT27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AV27" t="n">
         <v>26</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>27</v>
       </c>
       <c r="AW27" t="n">
         <v>18</v>
@@ -5357,7 +5424,7 @@
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5488,7 +5555,7 @@
         <v>5</v>
       </c>
       <c r="AH28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI28" t="n">
         <v>11</v>
@@ -5524,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5725,22 @@
         <v>-2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
         <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ29" t="n">
         <v>16</v>
@@ -5691,7 +5758,7 @@
         <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP29" t="n">
         <v>24</v>
@@ -5730,7 +5797,7 @@
         <v>23</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" t="n">
         <v>27</v>
       </c>
       <c r="G30" t="n">
-        <v>0.63</v>
+        <v>0.625</v>
       </c>
       <c r="H30" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I30" t="n">
         <v>38.5</v>
       </c>
       <c r="J30" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L30" t="n">
         <v>4.8</v>
@@ -5792,7 +5859,7 @@
         <v>13.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O30" t="n">
         <v>21.5</v>
@@ -5804,16 +5871,16 @@
         <v>0.77</v>
       </c>
       <c r="R30" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S30" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T30" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U30" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="V30" t="n">
         <v>14.9</v>
@@ -5822,46 +5889,46 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA30" t="n">
         <v>23.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="AC30" t="n">
         <v>3.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF30" t="n">
         <v>8</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>9</v>
       </c>
       <c r="AG30" t="n">
         <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ30" t="n">
         <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
@@ -5903,7 +5970,7 @@
         <v>15</v>
       </c>
       <c r="AY30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
@@ -6058,7 +6125,7 @@
         <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ31" t="n">
         <v>18</v>
@@ -6079,7 +6146,7 @@
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-30-2008-09</t>
+          <t>2009-03-30</t>
         </is>
       </c>
     </row>
